--- a/2_Rate_control_algorithm/data.xlsx
+++ b/2_Rate_control_algorithm/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavan\OneDrive\Documents\WioT\2_Rate_control_algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9141D096-357C-47BD-BC64-950C9B405B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798F845E-30E1-4AAB-BDA2-2105EB18A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,11 +1806,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648E8E3C-F8FF-4B6F-9E79-A9EF3A5D9B91}">
   <dimension ref="A2:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1869,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>266800000000000</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>289030000000000</v>
+        <v>2.8902999999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>355730000000000</v>
+        <v>3.5573000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>491210000000000</v>
+        <v>4.9120999999999997</v>
       </c>
       <c r="I4" s="1">
         <v>586850000000000</v>
@@ -1961,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>266800000000000</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>311260000000000</v>
+        <v>3.1126</v>
       </c>
       <c r="F5" s="1">
-        <v>400200000000000</v>
+        <v>4.0019999999999998</v>
       </c>
       <c r="G5" s="1">
-        <v>497330000000000</v>
+        <v>4.9733000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>618910000000000</v>
+        <v>6.1890999999999998</v>
       </c>
       <c r="I5" s="1">
         <v>701580000000000</v>
@@ -2053,22 +2057,22 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>266800000000000</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>355730000000000</v>
+        <v>3.5573000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>489130000000000</v>
+        <v>4.8913000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>600290000000000</v>
+        <v>6.0029000000000003</v>
       </c>
       <c r="G6" s="1">
-        <v>684280000000000</v>
+        <v>6.8428000000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>756390000000000</v>
+        <v>7.5639000000000003</v>
       </c>
       <c r="I6" s="1">
         <v>822180000000000</v>
@@ -2145,25 +2149,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>333500000000000</v>
+        <v>3.335</v>
       </c>
       <c r="C7" s="1">
-        <v>444660000000000</v>
+        <v>4.4466000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>666990000000000</v>
+        <v>6.6699000000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>733690000000000</v>
+        <v>7.3369</v>
       </c>
       <c r="F7" s="1">
-        <v>785540000000000</v>
+        <v>7.8554000000000004</v>
       </c>
       <c r="G7" s="1">
-        <v>824350000000000</v>
+        <v>8.2434999999999992</v>
       </c>
       <c r="H7" s="1">
-        <v>884810000000000</v>
+        <v>8.8481000000000005</v>
       </c>
       <c r="I7" s="1">
         <v>913140000000000</v>
@@ -2240,25 +2244,25 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>867090000000000</v>
+        <v>8.6708999999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>867090000000000</v>
+        <v>8.6708999999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>867090000000000</v>
+        <v>8.6708999999999996</v>
       </c>
       <c r="E8" s="1">
-        <v>849450000000000</v>
+        <v>8.4945000000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>904890000000000</v>
+        <v>9.0488999999999997</v>
       </c>
       <c r="G8" s="1">
-        <v>959800000000000</v>
+        <v>9.5980000000000008</v>
       </c>
       <c r="H8" s="1">
-        <v>933390000000000</v>
+        <v>9.3338999999999999</v>
       </c>
       <c r="I8" s="1">
         <v>102638000000000</v>
@@ -2335,25 +2339,25 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>106719000000000</v>
+        <v>10.671900000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>111165000000000</v>
+        <v>11.1165</v>
       </c>
       <c r="D9" s="1">
-        <v>100881000000000</v>
+        <v>10.088100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>102107000000000</v>
+        <v>10.210699999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>106017000000000</v>
+        <v>10.601699999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>108478000000000</v>
+        <v>10.847799999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>110041000000000</v>
+        <v>11.004099999999999</v>
       </c>
       <c r="I9" s="1">
         <v>113654000000000</v>
@@ -2430,25 +2434,25 @@
         <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>111165000000000</v>
+        <v>11.1165</v>
       </c>
       <c r="C10" s="1">
-        <v>111165000000000</v>
+        <v>11.1165</v>
       </c>
       <c r="D10" s="1">
-        <v>125683000000000</v>
+        <v>12.568300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>127935000000000</v>
+        <v>12.7935</v>
       </c>
       <c r="F10" s="1">
-        <v>134426000000000</v>
+        <v>13.442600000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>134909000000000</v>
+        <v>13.4909</v>
       </c>
       <c r="H10" s="1">
-        <v>132877000000000</v>
+        <v>13.287699999999999</v>
       </c>
       <c r="I10" s="1">
         <v>130032000000000</v>
@@ -2525,25 +2529,25 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>111165000000000</v>
+        <v>11.1165</v>
       </c>
       <c r="C11" s="1">
-        <v>120082000000000</v>
+        <v>12.0082</v>
       </c>
       <c r="D11" s="1">
-        <v>134005000000000</v>
+        <v>13.400499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>147710000000000</v>
+        <v>14.771000000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>159975000000000</v>
+        <v>15.9975</v>
       </c>
       <c r="G11" s="1">
-        <v>166642000000000</v>
+        <v>16.664200000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>150508000000000</v>
+        <v>15.050800000000001</v>
       </c>
       <c r="I11" s="1">
         <v>151345000000000</v>
@@ -2620,25 +2624,25 @@
         <v>26</v>
       </c>
       <c r="B12" s="1">
-        <v>121162000000000</v>
+        <v>12.116199999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>138613000000000</v>
+        <v>13.8613</v>
       </c>
       <c r="D12" s="1">
-        <v>157496000000000</v>
+        <v>15.749599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>165877000000000</v>
+        <v>16.587700000000002</v>
       </c>
       <c r="F12" s="1">
-        <v>176354000000000</v>
+        <v>17.635400000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>177500000000000</v>
+        <v>17.75</v>
       </c>
       <c r="H12" s="1">
-        <v>184405000000000</v>
+        <v>18.4405</v>
       </c>
       <c r="I12" s="1">
         <v>173976000000000</v>
@@ -2715,25 +2719,25 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>184879000000000</v>
+        <v>18.4879</v>
       </c>
       <c r="C13" s="1">
-        <v>185701000000000</v>
+        <v>18.5701</v>
       </c>
       <c r="D13" s="1">
-        <v>192762000000000</v>
+        <v>19.276199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>190476000000000</v>
+        <v>19.047599999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>190476000000000</v>
+        <v>19.047599999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>190698000000000</v>
+        <v>19.069800000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>197922000000000</v>
+        <v>19.792200000000001</v>
       </c>
       <c r="I13" s="1">
         <v>203114000000000</v>
@@ -4669,5 +4673,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>